--- a/api-doc/window.xlsx
+++ b/api-doc/window.xlsx
@@ -1,23 +1,316 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="properties" sheetId="1" r:id="rId1"/>
+    <sheet name="events" sheetId="2" r:id="rId2"/>
+    <sheet name="methods" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>表示层的名字，是层的唯一标示，若只想弹出唯一的全局window，可不给</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>需要放入弹出层的信息</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>表示当前弹出层的父层，父层关闭时子层也会一起关闭</t>
+  </si>
+  <si>
+    <t>baseZ</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>弹出层的z-index</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>弹出层打开关闭的速度</t>
+  </si>
+  <si>
+    <t>draggable</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>弹出层是否可拖动,该配置项生效的前提是dom元素配置可拖动属性</t>
+  </si>
+  <si>
+    <t>dragController</t>
+  </si>
+  <si>
+    <t>拖动属性生效的触发属性</t>
+  </si>
+  <si>
+    <t>[data-action="drag"]</t>
+  </si>
+  <si>
+    <t>overlayCss</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>遮罩层的样式</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>弹出层的样式</t>
+  </si>
+  <si>
+    <t>layerWrapper</t>
+  </si>
+  <si>
+    <t>设置弹出层的包裹层</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>needCloseBtn</t>
+  </si>
+  <si>
+    <t>是否需要全局的关闭按钮</t>
+  </si>
+  <si>
+    <t>needLeftBtn</t>
+  </si>
+  <si>
+    <t>是否需要全局的左侧按钮</t>
+  </si>
+  <si>
+    <t>needRightBtn</t>
+  </si>
+  <si>
+    <t>是否需要全局的右侧按钮</t>
+  </si>
+  <si>
+    <t>closeBtn</t>
+  </si>
+  <si>
+    <t>关闭按钮触发标志</t>
+  </si>
+  <si>
+    <t>[data-action="close"]</t>
+  </si>
+  <si>
+    <t>leftBtn</t>
+  </si>
+  <si>
+    <t>左侧按钮触发标志</t>
+  </si>
+  <si>
+    <t>[data-action="left"]</t>
+  </si>
+  <si>
+    <t>rightBtn</t>
+  </si>
+  <si>
+    <t>右侧按钮触发标志</t>
+  </si>
+  <si>
+    <t>[data-action="right"]</t>
+  </si>
+  <si>
+    <t>confirmBtn</t>
+  </si>
+  <si>
+    <t>确认按钮触发标志</t>
+  </si>
+  <si>
+    <t>[data-action="confirm"]</t>
+  </si>
+  <si>
+    <t>cancelBtn</t>
+  </si>
+  <si>
+    <t>取消按钮触发标志</t>
+  </si>
+  <si>
+    <t>[data-action="cancel"]</t>
+  </si>
+  <si>
+    <t>dialog</t>
+  </si>
+  <si>
+    <t>弹出层是否是弹出框类型,配置为true的话不需要配置message</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>弹出框类型。info,warn,ok,error。此配置生效的前提是dialog=true</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>弹出框标题。此配置生效的前提是dialog=true</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>弹出框内容。此配置生效的前提是dialog=true</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>弹出框是否需要确认按钮。此配置生效的前提是dialog=true</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>弹出框是否需要取消按钮。此配置生效的前提是dialog=true</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>onBeforeOpen</t>
+  </si>
+  <si>
+    <t>options(创建时的参数)</t>
+  </si>
+  <si>
+    <t>弹出层打开之前触发</t>
+  </si>
+  <si>
+    <t>onAfterOpen</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>弹出层打开之后触发</t>
+  </si>
+  <si>
+    <t>onBeforeClose</t>
+  </si>
+  <si>
+    <t>弹出层关闭之前触发</t>
+  </si>
+  <si>
+    <t>onAfterClose</t>
+  </si>
+  <si>
+    <t>弹出层关闭之后触发</t>
+  </si>
+  <si>
+    <t>leftBtnEvent</t>
+  </si>
+  <si>
+    <t>左侧按钮点击之后触发</t>
+  </si>
+  <si>
+    <t>rightBtnEvent</t>
+  </si>
+  <si>
+    <t>右侧按钮点击之后触发</t>
+  </si>
+  <si>
+    <t>onBeforeCancel</t>
+  </si>
+  <si>
+    <t>点击取消按钮之前触发</t>
+  </si>
+  <si>
+    <t>onAfterCancel</t>
+  </si>
+  <si>
+    <t>点击取消按钮之后触发</t>
+  </si>
+  <si>
+    <t>onBeforeConfirm</t>
+  </si>
+  <si>
+    <t>点击确认按钮之前触发</t>
+  </si>
+  <si>
+    <t>onAfterConfirm</t>
+  </si>
+  <si>
+    <t>点击确认按钮之后触发</t>
+  </si>
+  <si>
+    <t>unWindow</t>
+  </si>
+  <si>
+    <t>options(需要操作的对象)</t>
+  </si>
+  <si>
+    <t>关闭弹层</t>
+  </si>
+  <si>
+    <t>setLayerPosition</t>
+  </si>
+  <si>
+    <t>居中传递过去的层</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,14 +339,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -100,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -135,7 +442,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,37 +650,566 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="66.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>